--- a/docs/dades.xlsx
+++ b/docs/dades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\TR\GITHUB\TR_IL\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCB332A-1E34-41F0-8772-954554109542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A3E511-8317-49EC-A558-47EB6696FD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="884" activeTab="4" xr2:uid="{6565BD79-42E3-4FA0-A94F-B3D6085AB73D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="884" firstSheet="1" activeTab="9" xr2:uid="{6565BD79-42E3-4FA0-A94F-B3D6085AB73D}"/>
   </bookViews>
   <sheets>
     <sheet name="DADES" sheetId="1" r:id="rId1"/>
@@ -1877,6 +1877,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'FASE1 Missatges-Temps'!$B$3:$B$29</c:f>
@@ -12401,15 +12415,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>756396</xdr:colOff>
+      <xdr:colOff>756395</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>415737</xdr:rowOff>
+      <xdr:rowOff>387162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12560,15 +12574,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>242453</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:colOff>364917</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>467590</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12598,13 +12612,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>69271</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:rowOff>83128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1402772</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>775607</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13099,7 +13113,7 @@
   <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="AJ38" sqref="AJ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16981,8 +16995,8 @@
   </sheetPr>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17851,7 +17865,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19437,7 +19451,7 @@
   </sheetPr>
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
@@ -21091,7 +21105,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22744,7 +22758,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -23614,19 +23628,19 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24485,7 +24499,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="E36" sqref="E36:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/dades.xlsx
+++ b/docs/dades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\TR\GITHUB\TR_IL\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E60079-24CB-40F6-BC9A-D6A22DB1FDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDA47A-E038-449E-A687-CD09B8F16CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="879" firstSheet="5" activeTab="13" xr2:uid="{183D2299-2C08-4B21-9425-E86CCFD41383}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11505" tabRatio="879" activeTab="7" xr2:uid="{183D2299-2C08-4B21-9425-E86CCFD41383}"/>
   </bookViews>
   <sheets>
     <sheet name="DADES" sheetId="1" r:id="rId1"/>
@@ -22406,8 +22406,8 @@
   </sheetPr>
   <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30711,7 +30711,7 @@
   </sheetPr>
   <dimension ref="A1:AC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -31805,7 +31805,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="F3" sqref="F3:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33611,7 +33611,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -34130,7 +34130,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34885,7 +34885,9 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12:U21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
